--- a/biology/Médecine/Jules_François_René_Ladreit_de_La_Charrière/Jules_François_René_Ladreit_de_La_Charrière.xlsx
+++ b/biology/Médecine/Jules_François_René_Ladreit_de_La_Charrière/Jules_François_René_Ladreit_de_La_Charrière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules_Fran%C3%A7ois_Ren%C3%A9_Ladreit_de_La_Charri%C3%A8re</t>
+          <t>Jules_François_René_Ladreit_de_La_Charrière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules François René Ladreit de La Charrière (4 août 1833 à Privas[1] – 4 août 1903 à Paris)[2] est un médecin oto-rhino-laryngologiste français. Il est le petit-fils de René Ladreit de La Charrière.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules François René Ladreit de La Charrière (4 août 1833 à Privas – 4 août 1903 à Paris) est un médecin oto-rhino-laryngologiste français. Il est le petit-fils de René Ladreit de La Charrière.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jules_Fran%C3%A7ois_Ren%C3%A9_Ladreit_de_La_Charri%C3%A8re</t>
+          <t>Jules_François_René_Ladreit_de_La_Charrière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin chef de l’Institution nationale des sourds-muets de Paris et de sa clinique otologique, il ouvrit, dès 1867, des consultations gratuites pour les maladies de l’oreille à la Clinique Otologique annexée à l’établissement. Il est un des trois cofondateurs, en 1875, des Annales des maladies de l’oreille et du larynx. Il rédigea pour le Dictionnaire Encyclopédique des Sciences Médicales plusieurs articles de référence.  
 Il sera rapporteur et éditeur des travaux de la section des entendants du Congrès international pour l'étude des questions d'assistance et d'éducation des sourds-muets, tenu les 6, 7 et 8 août, organisé dans le cadre de l’Exposition universelle de 1900. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jules_Fran%C3%A7ois_Ren%C3%A9_Ladreit_de_La_Charri%C3%A8re</t>
+          <t>Jules_François_René_Ladreit_de_La_Charrière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur (20 octobre 1878)[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (20 octobre 1878)
  Officier d'Académie
  Chevalier de l'ordre de Léopold
  Chevalier de l'ordre du Christ</t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jules_Fran%C3%A7ois_Ren%C3%A9_Ladreit_de_La_Charri%C3%A8re</t>
+          <t>Jules_François_René_Ladreit_de_La_Charrière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,14 +594,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Du retard dans le développement du langage et du mutisme chez l'enfant qui entend, Annales des maladies de l'oreille et du larynx, tome 2, 23 - 37, 1876.
-Article Oreille in Dictionnaire Encyclopédique des Sciences Médicales, tome 17, 2e série, 1-309, 1882. [1]
-Article Surdi-mutité in Dictionnaire Encyclopédique des Sciences Médicales, tome 13, 3e série, 516-540,  1884. [2]
-Article Surdité in Dictionnaire Encyclopédique des Sciences Médicales, tome 13, 3e série, 540-565. 1884. [3]
-Compte rendu des travaux de la section des entendants, Exposition universelle de 1900. Congrès international pour l'étude des questions d'éducation et d'assistance des sourds-muets tenu les 6, 7 et 8 août 1900 au palais des congrès de l'exposition, Paris, Imprimerie d'ouvriers sourds-muets, 1900. [4]
-Préface de Goguillot, L., 1889, Comment on fait parler les sourds-muet, Paris – Masson. [5]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du retard dans le développement du langage et du mutisme chez l'enfant qui entend, Annales des maladies de l'oreille et du larynx, tome 2, 23 - 37, 1876.
+Article Oreille in Dictionnaire Encyclopédique des Sciences Médicales, tome 17, 2e série, 1-309, 1882. 
+Article Surdi-mutité in Dictionnaire Encyclopédique des Sciences Médicales, tome 13, 3e série, 516-540,  1884. 
+Article Surdité in Dictionnaire Encyclopédique des Sciences Médicales, tome 13, 3e série, 540-565. 1884. 
+Compte rendu des travaux de la section des entendants, Exposition universelle de 1900. Congrès international pour l'étude des questions d'éducation et d'assistance des sourds-muets tenu les 6, 7 et 8 août 1900 au palais des congrès de l'exposition, Paris, Imprimerie d'ouvriers sourds-muets, 1900. 
+Préface de Goguillot, L., 1889, Comment on fait parler les sourds-muet, Paris – Masson. </t>
         </is>
       </c>
     </row>
